--- a/biology/Zoologie/Dromaeosaurus/Dromaeosaurus.xlsx
+++ b/biology/Zoologie/Dromaeosaurus/Dromaeosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Droméosaure
-Dromaeosaurus[1],[2]  (le genre Dromaeosaurus, soit « lézard qui court ») était un petit dinosaure théropode qui a vécu au Canada durant le Crétacé supérieur il y a entre 80 et 69 millions d'années. On le connaît grâce à un crâne partiel et à divers ossements (côtes, parties de pieds)[3] retrouvés dans le parc provincial Dinosaur, en Alberta.
+Dromaeosaurus,  (le genre Dromaeosaurus, soit « lézard qui court ») était un petit dinosaure théropode qui a vécu au Canada durant le Crétacé supérieur il y a entre 80 et 69 millions d'années. On le connaît grâce à un crâne partiel et à divers ossements (côtes, parties de pieds) retrouvés dans le parc provincial Dinosaur, en Alberta.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dromaeosaurus mesurait 1,8 mètre de long et pesait 30 kilos. Il se distingue de la plupart des autres Dromaeosauridae notamment par son crâne court et massif et ses dents larges et robustes. À cet égard, il ressemblait à Tyrannosaurus. Les quelques os retrouvés des pattes arrière indiquent que l'animal était bien musclé. Son mode de vie et son alimentation exacte ne sont pas connus de façon certaine. Les dents présentaient des traces d'usure sérieuses, qui semblent indiquer qu'elles étaient plus utilisées pour briser et arracher des grands morceaux de chair que pour la découper ; il est possible que l'animal ait été un charognard.
-Les liens unissant Dromaeosaurus aux autres théropodes sont obscurs. Quoique son allure rude lui confère un aspect primitif, il n'en demeure pas moins un animal spécialisé. On lui attribue généralement sa propre sous-famille, celle des Dromaeosauridae ; ce groupe inclut également les Achillobator, Adasaurus, Deinonychus, Variraptor ou Utahraptor. Cependant, les relations de Dromaeosaurus sont en perpétuelle évolution[4].
-L'espèce type est D. albertensis[5],[6],[7]. On connaît également D. cristatus[8], D. explanatus[9] et D. gracilis[10], bien que ces trois autres espèces, manquant de matériel fossile, pourraient fort bien s'avérer n'être que synonymes de l'espèce type[11].
+Les liens unissant Dromaeosaurus aux autres théropodes sont obscurs. Quoique son allure rude lui confère un aspect primitif, il n'en demeure pas moins un animal spécialisé. On lui attribue généralement sa propre sous-famille, celle des Dromaeosauridae ; ce groupe inclut également les Achillobator, Adasaurus, Deinonychus, Variraptor ou Utahraptor. Cependant, les relations de Dromaeosaurus sont en perpétuelle évolution.
+L'espèce type est D. albertensis. On connaît également D. cristatus, D. explanatus et D. gracilis, bien que ces trois autres espèces, manquant de matériel fossile, pourraient fort bien s'avérer n'être que synonymes de l'espèce type.
 </t>
         </is>
       </c>
